--- a/excelFiles/sells.xlsx
+++ b/excelFiles/sells.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eobga\Desktop\proyectos python\openpyxl-practice\excelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB60C9FB-6508-452E-B0CA-10319B13DA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D71DD9-2352-4DDB-BD4D-A40A781D4B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{3519AEE3-3203-49CE-AE7B-02C1CEA35DDD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Producto</t>
   </si>
@@ -45,10 +45,25 @@
     <t>Galletas</t>
   </si>
   <si>
-    <t>frappe</t>
-  </si>
-  <si>
-    <t>Cafe</t>
+    <t>Sandwich</t>
+  </si>
+  <si>
+    <t>Frappe</t>
+  </si>
+  <si>
+    <t>Café</t>
+  </si>
+  <si>
+    <t>Chilaquiles</t>
+  </si>
+  <si>
+    <t>Huevos</t>
+  </si>
+  <si>
+    <t>Chocomilk</t>
+  </si>
+  <si>
+    <t>Chocolate caliente</t>
   </si>
 </sst>
 </file>
@@ -116,12 +131,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F55E83-34D3-4541-A556-84BD35E45CBC}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F10" sqref="F9:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -469,6 +486,7 @@
       <c r="C2" s="3">
         <v>70</v>
       </c>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -495,7 +513,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
         <v>22</v>
@@ -506,7 +524,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>9</v>
@@ -515,12 +533,60 @@
         <v>85</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3">
+        <v>120</v>
+      </c>
+    </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C10" s="4"/>
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excelFiles/sells.xlsx
+++ b/excelFiles/sells.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eobga\Desktop\proyectos python\openpyxl-practice\excelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D71DD9-2352-4DDB-BD4D-A40A781D4B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136E0FF0-E6EA-4E37-8659-42099CA0DE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{3519AEE3-3203-49CE-AE7B-02C1CEA35DDD}"/>
   </bookViews>
@@ -104,7 +104,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -127,18 +127,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F55E83-34D3-4541-A556-84BD35E45CBC}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F9:F10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -486,7 +499,7 @@
       <c r="C2" s="3">
         <v>70</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -556,7 +569,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2">
@@ -587,6 +600,15 @@
       <c r="C11" s="3">
         <v>45</v>
       </c>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="6"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="E13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
